--- a/Burn Down Chart_ADJ Banking_Updated.xlsx
+++ b/Burn Down Chart_ADJ Banking_Updated.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Splash Screen GUI</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Error Checking</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,30 +311,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -422,11 +425,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -504,24 +587,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -529,10 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -541,55 +606,64 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -731,7 +805,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$10:$F$10</c:f>
+              <c:f>Sheet1!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -751,21 +825,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$F$11</c:f>
+              <c:f>Sheet1!$C$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +884,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$10:$F$10</c:f>
+              <c:f>Sheet1!$C$11:$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -830,12 +904,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$F$12</c:f>
+              <c:f>Sheet1!$C$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
@@ -1627,13 +1701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1919,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,9 +2038,9 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +2059,7 @@
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1998,23 +2072,23 @@
         <v>5</v>
       </c>
       <c r="D5" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="33">
-        <f>IF(J5=0,0,I5)</f>
+      <c r="F5" s="27">
+        <f>I5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="I5" s="27">
+      <c r="G5" s="29"/>
+      <c r="I5" s="37">
         <f>C5-(SUM(D5:E5))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
         <f>SUM(E5:E9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2031,18 +2105,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="27">
+        <f>I6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33">
-        <f>IF(J5=0,0,I6)</f>
+      <c r="G6" s="29"/>
+      <c r="I6" s="37">
+        <f>C6-(SUM(D6:E6))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="I6" s="29">
-        <f>C6-(SUM(D6:E6))</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -2058,18 +2132,18 @@
         <v>3</v>
       </c>
       <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <f>I7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="33">
-        <f>IF(J5=0,0,I7)</f>
+      <c r="G7" s="29"/>
+      <c r="I7" s="37">
+        <f>C7-(SUM(D7:E7))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="I7" s="29">
-        <f>C7-(SUM(D7:E7))</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="37"/>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2080,26 +2154,26 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="24">
         <v>1</v>
       </c>
       <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="27">
+        <f>I8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="33">
-        <f>IF(J5=0,0,I8)</f>
+      <c r="G8" s="29"/>
+      <c r="I8" s="37">
+        <f>C8-(SUM(D8:E8))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="I8" s="29">
-        <f>C8-(SUM(D8:E8))</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -2113,106 +2187,131 @@
         <v>0</v>
       </c>
       <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <f>I9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="33">
-        <f>IF(J5=0,0,I9)</f>
+      <c r="G9" s="29"/>
+      <c r="I9" s="37">
+        <f>C9-(SUM(D9:E9))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="I9" s="31">
-        <f>C9-(SUM(D9:E9))</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="27">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="I10" s="38">
+        <f>C10-(SUM(D10:E10))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22">
-        <f>SUM(C5:C9)</f>
-        <v>19</v>
-      </c>
-      <c r="D11" s="26">
-        <f>C11-(SUM(D5:D9))</f>
-        <v>8</v>
-      </c>
-      <c r="E11" s="19">
-        <f>D11-(SUM(E5:E9))</f>
-        <v>8</v>
-      </c>
-      <c r="F11" s="33">
-        <f>E11-(SUM(F5:F9))</f>
-        <v>8</v>
-      </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22">
         <f>SUM(C5:C9)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="26">
+        <f>C12-(SUM(D5:D9))</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="19">
+        <f>D12-(SUM(E5:E9))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <f>E12-(SUM(F5:F9))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22">
+        <f>SUM(C5:C9)</f>
+        <v>20</v>
+      </c>
+      <c r="D13" s="26">
         <v>12</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
@@ -2302,204 +2401,234 @@
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="46" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="45" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="45" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="48"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="48"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="56"/>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="45" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="45" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="45" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="45" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="45" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="45" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="45" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="56"/>
-    </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="49"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="45" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="45" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="45" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="45" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="48"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="56"/>
-    </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="49"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="45" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="45" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="56"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="53" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="48"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="47" t="s">
+      <c r="B66" s="39"/>
+      <c r="C66" s="49" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="49"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="49"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
